--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>4798200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3579100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>3579100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4266300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>4266300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6912300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>6912300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10542800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>10542800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8823700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>8823700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4630800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>4630800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8130900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>8130900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9548900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>9548900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>15952000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>15952000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>23991500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>23991500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>15566100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>15566100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>14259000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>14259000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>12541900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>20509800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>20509800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>22259400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>15048400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>15048400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>12098000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>12098000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>18299700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>18299700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>9228100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>9228100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>30118500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>30118500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>150145400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>105146400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>105146400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>49893600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>49893600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>45338900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2689"/>
+  <dimension ref="A1:I2690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94495,6 +94495,41 @@
         <v>45338900</v>
       </c>
     </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2690" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2690" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2690" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2690" t="n">
+        <v>44084700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2690"/>
+  <dimension ref="A1:I2691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94530,6 +94530,41 @@
         <v>44084700</v>
       </c>
     </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2691" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2691" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2691" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I2691" t="n">
+        <v>46097100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2691"/>
+  <dimension ref="A1:I2692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94565,6 +94565,41 @@
         <v>46097100</v>
       </c>
     </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G2692" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2692" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2692" t="n">
+        <v>29046100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2692"/>
+  <dimension ref="A1:I2693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94600,6 +94600,41 @@
         <v>29046100</v>
       </c>
     </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2693" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2693" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2693" t="n">
+        <v>34704800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94635,6 +94635,41 @@
         <v>34704800</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>56073500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94670,6 +94670,41 @@
         <v>56073500</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>32038800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94705,6 +94705,41 @@
         <v>32038800</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>37359100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94740,6 +94740,41 @@
         <v>37359100</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>45408900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94775,6 +94775,41 @@
         <v>45408900</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>49493300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94810,6 +94810,41 @@
         <v>49493300</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>38120500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94845,6 +94845,41 @@
         <v>38120500</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>27998000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94880,6 +94880,41 @@
         <v>27998000</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>32433500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2701"/>
+  <dimension ref="A1:I2702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94915,6 +94915,41 @@
         <v>32433500</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>44736200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2702"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94950,6 +94950,41 @@
         <v>44736200</v>
       </c>
     </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>64834500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94985,6 +94985,41 @@
         <v>64834500</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>96085000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2918"/>
+  <dimension ref="A1:I2919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102510,6 +102510,41 @@
         <v>96085000</v>
       </c>
     </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2919" t="n">
+        <v>51063700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2919"/>
+  <dimension ref="A1:I2920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102545,6 +102545,41 @@
         <v>51063700</v>
       </c>
     </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2920" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G2920" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H2920" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2920" t="n">
+        <v>30301200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2920"/>
+  <dimension ref="A1:I2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102580,6 +102580,41 @@
         <v>30301200</v>
       </c>
     </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2921" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2921" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2921" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2921" t="n">
+        <v>18349800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2921"/>
+  <dimension ref="A1:I2922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102615,6 +102615,41 @@
         <v>18349800</v>
       </c>
     </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2922" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2922" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2922" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I2922" t="n">
+        <v>27118700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2922"/>
+  <dimension ref="A1:I2923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102650,6 +102650,41 @@
         <v>27118700</v>
       </c>
     </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2923" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2923" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2923" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2923" t="n">
+        <v>43423400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2923"/>
+  <dimension ref="A1:I2924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102685,6 +102685,41 @@
         <v>43423400</v>
       </c>
     </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2924" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G2924" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2924" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2924" t="n">
+        <v>31716300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2924"/>
+  <dimension ref="A1:I2925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102720,6 +102720,41 @@
         <v>31716300</v>
       </c>
     </row>
+    <row r="2925">
+      <c r="A2925" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2925" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2925" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2925" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2925" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2925" t="n">
+        <v>20149400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2925"/>
+  <dimension ref="A1:I2926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102755,6 +102755,41 @@
         <v>20149400</v>
       </c>
     </row>
+    <row r="2926">
+      <c r="A2926" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2926" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2926" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2926" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2926" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2926" t="n">
+        <v>19217800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2926"/>
+  <dimension ref="A1:I2927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102790,6 +102790,41 @@
         <v>19217800</v>
       </c>
     </row>
+    <row r="2927">
+      <c r="A2927" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2927" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2927" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2927" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2927" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2927" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I2927" t="n">
+        <v>18877700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2927"/>
+  <dimension ref="A1:I2928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102825,6 +102825,41 @@
         <v>18877700</v>
       </c>
     </row>
+    <row r="2928">
+      <c r="A2928" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2928" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2928" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F2928" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2928" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2928" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2928" t="n">
+        <v>19208800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2928"/>
+  <dimension ref="A1:I2930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102860,6 +102860,76 @@
         <v>19208800</v>
       </c>
     </row>
+    <row r="2929">
+      <c r="A2929" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2929" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2929" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2929" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2929" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2929" t="n">
+        <v>18228700</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2930" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2930" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2930" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2930" t="n">
+        <v>24852400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2930"/>
+  <dimension ref="A1:I2931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102930,6 +102930,41 @@
         <v>24852400</v>
       </c>
     </row>
+    <row r="2931">
+      <c r="A2931" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2931" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2931" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2931" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2931" t="n">
+        <v>19151100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2931"/>
+  <dimension ref="A1:I2934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102965,6 +102965,111 @@
         <v>19151100</v>
       </c>
     </row>
+    <row r="2932">
+      <c r="A2932" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2932" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2932" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2932" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2932" t="n">
+        <v>15503700</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2933" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2933" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2933" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2933" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2933" t="n">
+        <v>12982800</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2934" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2934" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2934" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2934" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2934" t="n">
+        <v>5592000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2934"/>
+  <dimension ref="A1:I2935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103070,6 +103070,41 @@
         <v>5592000</v>
       </c>
     </row>
+    <row r="2935">
+      <c r="A2935" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2935" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2935" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2935" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H2935" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I2935" t="n">
+        <v>5578900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2935"/>
+  <dimension ref="A1:I2936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103105,6 +103105,41 @@
         <v>5578900</v>
       </c>
     </row>
+    <row r="2936">
+      <c r="A2936" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2936" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2936" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2936" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2936" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2936" t="n">
+        <v>8023400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5141.xlsx
+++ b/data/5141.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2936"/>
+  <dimension ref="A1:I2939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103140,6 +103140,111 @@
         <v>8023400</v>
       </c>
     </row>
+    <row r="2937">
+      <c r="A2937" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2937" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2937" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2937" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2937" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2937" t="n">
+        <v>27069200</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2938" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2938" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2938" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2938" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2938" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2938" t="n">
+        <v>14232000</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="D2939" t="inlineStr">
+        <is>
+          <t>DAYANG</t>
+        </is>
+      </c>
+      <c r="E2939" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F2939" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2939" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H2939" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2939" t="n">
+        <v>28077100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
